--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757540.462982148</v>
+        <v>2757540.462982149</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064518</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E8" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
         <v>404.8896287080119</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1551,43 +1551,43 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D14" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F17" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
@@ -2025,52 +2025,52 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U20" t="n">
         <v>648.751427201877</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2499,43 +2499,43 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C26" t="n">
         <v>449.4745782429939</v>
@@ -2629,7 +2629,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="27">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2736,43 +2736,43 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3100,7 +3100,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -3210,52 +3210,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V41" t="n">
         <v>629.8510241668239</v>
@@ -3811,7 +3811,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
         <v>511.3174326828064</v>
@@ -3921,43 +3921,43 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4339,22 +4339,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4500,19 +4500,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>326.872627829046</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4564,37 +4564,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4815.933753230444</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5726.088636171188</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>6561.955964268602</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7018.776474070823</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4740,7 +4740,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
         <v>457.4949902104935</v>
@@ -4795,43 +4795,43 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4977,13 +4977,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>438.463966970767</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,49 +5050,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5235,22 +5235,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5287,19 +5287,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1901.586501346477</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2819.17922466306</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M14" t="n">
-        <v>3301.358424176563</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049235</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
         <v>6474.295852434775</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5475,10 +5475,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5506,7 +5506,7 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
         <v>894.2358041069906</v>
@@ -5521,25 +5521,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236997</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5718,13 +5718,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5755,37 +5755,37 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1794.645504192963</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>2712.238227509546</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M20" t="n">
-        <v>3194.417427023049</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
         <v>6118.11576243671</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5922,46 +5922,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5992,31 +5992,31 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2049.12665539136</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L23" t="n">
-        <v>3793.50665539136</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M23" t="n">
-        <v>4275.685854904863</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>4840.728918777535</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>5750.883801718279</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6586.751129815692</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7043.571639617914</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K26" t="n">
-        <v>1677.76186642996</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L26" t="n">
-        <v>2595.354589746543</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M26" t="n">
-        <v>3077.533789260046</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O26" t="n">
         <v>5638.428524337362</v>
@@ -6277,7 +6277,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6420,22 +6420,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6472,25 +6472,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5124.203572786019</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6703,22 +6703,22 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O32" t="n">
         <v>5638.428524337362</v>
@@ -6733,19 +6733,19 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
         <v>3583.51196363841</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6943,25 +6943,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1936.671378010443</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7140,13 +7140,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
         <v>1711.662994324041</v>
@@ -7177,55 +7177,55 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7368,22 +7368,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7414,31 +7414,31 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3071.357825473565</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M41" t="n">
-        <v>3553.537024987068</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.58008885974</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7450,13 +7450,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
         <v>3583.51196363841</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7605,22 +7605,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7654,28 +7654,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>821.2992300042777</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7818,46 +7818,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>205.9955488254438</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>459.8234496459306</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>383.4716344542434</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>519.4191429811533</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,13 +9184,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>29.34358558166855</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>383.4716344542439</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>603.283928249446</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>835.138663316583</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>180.9499270607058</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>265.4073538855536</v>
+        <v>165.4662215866842</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>637.4834235498436</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>595.7709581728403</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>315.9139665186106</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>70.05686619102073</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.34358558166878</v>
+        <v>459.8234496459309</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>147.4078661503587</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W16" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24162,16 +24162,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="27">
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25335,10 +25335,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25575,7 +25575,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>130.9590368616381</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25885,10 +25885,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26085,7 +26085,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572748</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907112</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547814</v>
+        <v>5066546.631206328</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.652196138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162778</v>
+        <v>7379034.67318594</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175739</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165539</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734843</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925532</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116221</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306909</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.43174976</v>
+        <v>15472742.82011457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688291</v>
+        <v>16628986.84110439</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878983</v>
+        <v>17785230.86209422</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411309</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="E2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.136797669</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="I2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="L2" t="n">
         <v>817831.1367976685</v>
-      </c>
-      <c r="L2" t="n">
-        <v>817831.1367976688</v>
       </c>
       <c r="M2" t="n">
         <v>817831.1367976689</v>
@@ -26358,10 +26358,10 @@
         <v>817831.1367976688</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26426,16 +26426,16 @@
         <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.326896347</v>
+        <v>113919.3268963469</v>
       </c>
       <c r="D4" t="n">
         <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="F4" t="n">
         <v>38928.93672769592</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38928.93672769591</v>
       </c>
       <c r="G4" t="n">
         <v>38928.93672769592</v>
@@ -26450,22 +26450,22 @@
         <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="O4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
     </row>
     <row r="5">
@@ -26533,31 +26533,31 @@
         <v>626522.0273447845</v>
       </c>
       <c r="D6" t="n">
-        <v>626824.3880147174</v>
+        <v>626824.3880147175</v>
       </c>
       <c r="E6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="F6" t="n">
-        <v>639922.8000699726</v>
+        <v>639922.8000699731</v>
       </c>
       <c r="G6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="H6" t="n">
-        <v>639922.8000699729</v>
+        <v>639922.8000699732</v>
       </c>
       <c r="I6" t="n">
         <v>639922.800069973</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997299</v>
+        <v>19698.80006997287</v>
       </c>
       <c r="K6" t="n">
+        <v>639922.8000699728</v>
+      </c>
+      <c r="L6" t="n">
         <v>639922.8000699726</v>
-      </c>
-      <c r="L6" t="n">
-        <v>639922.8000699729</v>
       </c>
       <c r="M6" t="n">
         <v>639922.800069973</v>
@@ -26566,10 +26566,10 @@
         <v>639922.8000699729</v>
       </c>
       <c r="O6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="P6" t="n">
-        <v>639922.8000699729</v>
+        <v>639922.8000699726</v>
       </c>
     </row>
   </sheetData>
@@ -27696,16 +27696,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284045</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
         <v>368.8061924102448</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27936,10 +27936,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -27991,16 +27991,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>388.0294482079483</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34831,13 +34831,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>763.2345892100915</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34992,16 +34992,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35062,22 +35062,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>29.51871305977425</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35232,10 +35232,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>151.1650359809837</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35299,25 +35299,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.171816252742</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
@@ -35326,7 +35326,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35542,16 +35542,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35560,10 +35560,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>844.9064928403257</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1238.607130132378</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834172</v>
+        <v>1446.280479664571</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36013,13 +36013,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,13 +36028,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>948.6919521884806</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1130.585920886405</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>1174.034497817802</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>4.473091295036247</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,13 +36721,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1012.521640317714</v>
+        <v>912.580508018845</v>
       </c>
       <c r="L26" t="n">
         <v>926.8613366834172</v>
@@ -36736,10 +36736,10 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
@@ -36964,10 +36964,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1481.793855971474</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,25 +37195,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.04639948992</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1082.820654651126</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,10 +37453,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1160.224398940241</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37669,19 +37669,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>1141.752258948503</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>557.1065626693064</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,22 +37906,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>956.2049222650858</v>
+        <v>1386.684786329348</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -37930,10 +37930,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38146,13 +38146,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>610.859528246977</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38167,10 +38167,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
